--- a/Code/Results/Cases/Case_2_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2125665788388</v>
+        <v>17.52856320514249</v>
       </c>
       <c r="C2">
-        <v>12.69171743976893</v>
+        <v>9.532289039123967</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.032739514253801</v>
+        <v>11.64646648567682</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>36.10951162368999</v>
+        <v>40.02804150606046</v>
       </c>
       <c r="H2">
-        <v>11.38615961952212</v>
+        <v>16.86384290741739</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.151094054345903</v>
+        <v>9.914138470075724</v>
       </c>
       <c r="M2">
-        <v>12.57577703435973</v>
+        <v>15.90873117907651</v>
       </c>
       <c r="N2">
-        <v>12.45075025493576</v>
+        <v>19.07096936297475</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73958016632771</v>
+        <v>17.12748390953544</v>
       </c>
       <c r="C3">
-        <v>12.01438610974485</v>
+        <v>9.241980144588794</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.081586868799727</v>
+        <v>11.6677460222269</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>34.76737908556103</v>
+        <v>39.9055691191341</v>
       </c>
       <c r="H3">
-        <v>11.28039237401889</v>
+        <v>16.90347327196797</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.071668415551912</v>
+        <v>9.923512210824526</v>
       </c>
       <c r="M3">
-        <v>12.02812367193306</v>
+        <v>15.83772752787294</v>
       </c>
       <c r="N3">
-        <v>12.71738600568774</v>
+        <v>19.14528044247534</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86024021626996</v>
+        <v>16.88078476152909</v>
       </c>
       <c r="C4">
-        <v>11.58026099802063</v>
+        <v>9.057197283084198</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.113019332917052</v>
+        <v>11.68156407098756</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>33.96862539942182</v>
+        <v>39.84539046968646</v>
       </c>
       <c r="H4">
-        <v>11.22662062207027</v>
+        <v>16.93166410638931</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.025547591283187</v>
+        <v>9.930664770324887</v>
       </c>
       <c r="M4">
-        <v>11.6863929892177</v>
+        <v>15.79710713986227</v>
       </c>
       <c r="N4">
-        <v>12.8838158681436</v>
+        <v>19.19294441569158</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49231242043548</v>
+        <v>16.78029921566081</v>
       </c>
       <c r="C5">
-        <v>11.39881966946236</v>
+        <v>8.98031723524752</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.126188622978826</v>
+        <v>11.68738468930925</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>33.64976755547658</v>
+        <v>39.82465272483914</v>
       </c>
       <c r="H5">
-        <v>11.20740893186301</v>
+        <v>16.94411890466057</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.007418182624231</v>
+        <v>9.933931056623345</v>
       </c>
       <c r="M5">
-        <v>11.54594164820522</v>
+        <v>15.78131473468802</v>
       </c>
       <c r="N5">
-        <v>12.95236826567818</v>
+        <v>19.21288181953291</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43064369391729</v>
+        <v>16.76362110384686</v>
       </c>
       <c r="C6">
-        <v>11.36841980773708</v>
+        <v>8.967457920152576</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.128397089754603</v>
+        <v>11.68836266694763</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>33.59723058303015</v>
+        <v>39.82143801671054</v>
       </c>
       <c r="H6">
-        <v>11.20437873461831</v>
+        <v>16.94624530911301</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.004447956554772</v>
+        <v>9.9344946607984</v>
       </c>
       <c r="M6">
-        <v>11.52255356159227</v>
+        <v>15.77873870650891</v>
       </c>
       <c r="N6">
-        <v>12.96379683728901</v>
+        <v>19.21622350460605</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85531684265445</v>
+        <v>16.87942918163707</v>
       </c>
       <c r="C7">
-        <v>11.57783227715669</v>
+        <v>9.056166759683098</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.11319548178945</v>
+        <v>11.68164180135354</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>33.96429791847847</v>
+        <v>39.84509545861592</v>
       </c>
       <c r="H7">
-        <v>11.226350736679</v>
+        <v>16.93182816605605</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.025300399473185</v>
+        <v>9.930707396851272</v>
       </c>
       <c r="M7">
-        <v>11.68450338545921</v>
+        <v>15.79689106219876</v>
       </c>
       <c r="N7">
-        <v>12.88473736876376</v>
+        <v>19.1932112151687</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71283966432918</v>
+        <v>17.39045325709681</v>
       </c>
       <c r="C8">
-        <v>12.4619857341633</v>
+        <v>9.433582211850345</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.049282019310225</v>
+        <v>11.65364780894364</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>35.64165011759559</v>
+        <v>39.98270257952639</v>
       </c>
       <c r="H8">
-        <v>11.34730895983642</v>
+        <v>16.87670491673887</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.123158732087487</v>
+        <v>9.917080752715446</v>
       </c>
       <c r="M8">
-        <v>12.38818238134141</v>
+        <v>15.88363911961085</v>
       </c>
       <c r="N8">
-        <v>12.54215297546144</v>
+        <v>19.09617020754662</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.13580533697982</v>
+        <v>18.38254283209877</v>
       </c>
       <c r="C9">
-        <v>14.0497680411625</v>
+        <v>10.11939669580422</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.93547453782838</v>
+        <v>11.60469956160679</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>39.12082114952413</v>
+        <v>40.37107644699181</v>
       </c>
       <c r="H9">
-        <v>11.67777972269207</v>
+        <v>16.79935457307404</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.336059987182042</v>
+        <v>9.901430908597995</v>
       </c>
       <c r="M9">
-        <v>13.71806719330591</v>
+        <v>16.07678127359488</v>
       </c>
       <c r="N9">
-        <v>11.88952049061334</v>
+        <v>18.92194917469503</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.42429618331778</v>
+        <v>19.09696656333255</v>
       </c>
       <c r="C10">
-        <v>15.12696724980371</v>
+        <v>10.58726036944736</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.859065201849958</v>
+        <v>11.57233328944124</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>41.7807943615661</v>
+        <v>40.72741894644192</v>
       </c>
       <c r="H10">
-        <v>11.98357247126785</v>
+        <v>16.76144695345738</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.505296016132863</v>
+        <v>9.896663118208215</v>
       </c>
       <c r="M10">
-        <v>14.86673204788877</v>
+        <v>16.23188159358402</v>
       </c>
       <c r="N10">
-        <v>11.41812823258461</v>
+        <v>18.80362990212461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.41808509729877</v>
+        <v>19.41721940738847</v>
       </c>
       <c r="C11">
-        <v>15.59791102722076</v>
+        <v>10.79177705102379</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.825922850230307</v>
+        <v>11.55838353077946</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>43.01198859722673</v>
+        <v>40.90456284807368</v>
       </c>
       <c r="H11">
-        <v>12.13763220658753</v>
+        <v>16.74834433261519</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.585082387530837</v>
+        <v>9.895950038455316</v>
       </c>
       <c r="M11">
-        <v>15.41396649358541</v>
+        <v>16.30511103701307</v>
       </c>
       <c r="N11">
-        <v>11.2045519710539</v>
+        <v>18.75187991607354</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.78778098331566</v>
+        <v>19.53768567675676</v>
       </c>
       <c r="C12">
-        <v>15.77354644076788</v>
+        <v>10.86798999304984</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.813611070384463</v>
+        <v>11.55321191938282</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>43.48121994512852</v>
+        <v>40.97376520162718</v>
       </c>
       <c r="H12">
-        <v>12.19822356057416</v>
+        <v>16.7439806679699</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.615700208448525</v>
+        <v>9.895888751251674</v>
       </c>
       <c r="M12">
-        <v>15.61754049677629</v>
+        <v>16.33320796472092</v>
       </c>
       <c r="N12">
-        <v>11.12371872804158</v>
+        <v>18.73257987249461</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.70845244672253</v>
+        <v>19.5117788709627</v>
       </c>
       <c r="C13">
-        <v>15.73583947906573</v>
+        <v>10.85163155906267</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.816251915544413</v>
+        <v>11.55432079448367</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>43.38002868761323</v>
+        <v>40.95876757749433</v>
       </c>
       <c r="H13">
-        <v>12.1850723166847</v>
+        <v>16.74489382826436</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.609088076871019</v>
+        <v>9.895892677152402</v>
       </c>
       <c r="M13">
-        <v>15.57385797940213</v>
+        <v>16.32714077900868</v>
       </c>
       <c r="N13">
-        <v>11.14112705052663</v>
+        <v>18.73672331975983</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.44863208045701</v>
+        <v>19.42714708629424</v>
       </c>
       <c r="C14">
-        <v>15.61241448437772</v>
+        <v>10.79807204565984</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.824905133714648</v>
+        <v>11.55795583976796</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>43.0505322546532</v>
+        <v>40.91021389689547</v>
       </c>
       <c r="H14">
-        <v>12.14257136516695</v>
+        <v>16.74797333315189</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.58759321159881</v>
+        <v>9.895940816567952</v>
       </c>
       <c r="M14">
-        <v>15.43078725361697</v>
+        <v>16.30741534723032</v>
       </c>
       <c r="N14">
-        <v>11.19790139097996</v>
+        <v>18.75028615616893</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.28862630328385</v>
+        <v>19.37519909276405</v>
       </c>
       <c r="C15">
-        <v>15.53646293143046</v>
+        <v>10.76510368579858</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.830236740338999</v>
+        <v>11.5601968349065</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>42.84909772273881</v>
+        <v>40.88074837918113</v>
       </c>
       <c r="H15">
-        <v>12.11683466963706</v>
+        <v>16.7499375658724</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.574479741111379</v>
+        <v>9.895997468363481</v>
       </c>
       <c r="M15">
-        <v>15.34267974084996</v>
+        <v>16.29538014101315</v>
       </c>
       <c r="N15">
-        <v>11.23268044420671</v>
+        <v>18.75863235498448</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.35841255906179</v>
+        <v>19.07593100858859</v>
       </c>
       <c r="C16">
-        <v>15.0958093393947</v>
+        <v>10.57372409151678</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.861264152897452</v>
+        <v>11.57326047463934</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>41.70075368012749</v>
+        <v>40.71614144960797</v>
       </c>
       <c r="H16">
-        <v>11.97381389757916</v>
+        <v>16.76238679687388</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.50013825015503</v>
+        <v>9.896738964426707</v>
       </c>
       <c r="M16">
-        <v>14.83045251917401</v>
+        <v>16.22714815745159</v>
       </c>
       <c r="N16">
-        <v>11.43209659110346</v>
+        <v>18.80705347563229</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.77576539188467</v>
+        <v>18.89103369688265</v>
       </c>
       <c r="C17">
-        <v>14.82062138652654</v>
+        <v>10.45416092488574</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.880716459251365</v>
+        <v>11.58147249168232</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>41.00164980752092</v>
+        <v>40.6189853086923</v>
       </c>
       <c r="H17">
-        <v>11.88997746113434</v>
+        <v>16.77108660794909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.455250096150825</v>
+        <v>9.897566310882787</v>
       </c>
       <c r="M17">
-        <v>14.50960731471278</v>
+        <v>16.1859622473787</v>
       </c>
       <c r="N17">
-        <v>11.55459796356733</v>
+        <v>18.83728827028715</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.43618327853722</v>
+        <v>18.78424620276096</v>
       </c>
       <c r="C18">
-        <v>14.66054113556378</v>
+        <v>10.38461045822634</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.89205665045467</v>
+        <v>11.58626868688873</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>40.60153303894808</v>
+        <v>40.56452227794237</v>
       </c>
       <c r="H18">
-        <v>11.84315832111337</v>
+        <v>16.77648021966106</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.429694980594956</v>
+        <v>9.898179247421055</v>
       </c>
       <c r="M18">
-        <v>14.32260565077555</v>
+        <v>16.16252596110195</v>
       </c>
       <c r="N18">
-        <v>11.62514395962947</v>
+        <v>18.85487384398437</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32043602105667</v>
+        <v>18.74801825803607</v>
       </c>
       <c r="C19">
-        <v>14.60603061349686</v>
+        <v>10.36092895014085</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.895922140524466</v>
+        <v>11.58790512270922</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>40.46640445956536</v>
+        <v>40.54632685241696</v>
       </c>
       <c r="H19">
-        <v>11.8275437558502</v>
+        <v>16.7783732587719</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.421087661839422</v>
+        <v>9.898410336044444</v>
       </c>
       <c r="M19">
-        <v>14.25886476856483</v>
+        <v>16.15463478489242</v>
       </c>
       <c r="N19">
-        <v>11.64904679630911</v>
+        <v>18.86086161506883</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.83824950836544</v>
+        <v>18.91076274377523</v>
       </c>
       <c r="C20">
-        <v>14.85010158652567</v>
+        <v>10.46696973069844</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.878629983609982</v>
+        <v>11.58059077071614</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>41.07586524809465</v>
+        <v>40.62918120773604</v>
       </c>
       <c r="H20">
-        <v>11.8987562218707</v>
+        <v>16.77012014635791</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.460001251902679</v>
+        <v>9.897464056499764</v>
       </c>
       <c r="M20">
-        <v>14.54401575672503</v>
+        <v>16.19032052607326</v>
       </c>
       <c r="N20">
-        <v>11.54154909486338</v>
+        <v>18.8340495223271</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52512617157525</v>
+        <v>19.45202833123786</v>
       </c>
       <c r="C21">
-        <v>15.64874027564268</v>
+        <v>10.81383751289847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.822356946576987</v>
+        <v>11.55688513344285</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>43.14723170018052</v>
+        <v>40.92441805766788</v>
       </c>
       <c r="H21">
-        <v>12.15499297837689</v>
+        <v>16.74705255982033</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.593895774657462</v>
+        <v>9.895921016871702</v>
       </c>
       <c r="M21">
-        <v>15.47290889104578</v>
+        <v>16.31319938309153</v>
       </c>
       <c r="N21">
-        <v>11.1812248939864</v>
+        <v>18.74629438741951</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.58903894170006</v>
+        <v>19.80102406071857</v>
       </c>
       <c r="C22">
-        <v>16.15498575547943</v>
+        <v>11.03333408199227</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.786973190347256</v>
+        <v>11.54203811380797</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>44.51854475176955</v>
+        <v>41.12971735703786</v>
       </c>
       <c r="H22">
-        <v>12.33563533946712</v>
+        <v>16.73546319182126</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.683763267396077</v>
+        <v>9.896128918788204</v>
       </c>
       <c r="M22">
-        <v>16.05875959991763</v>
+        <v>16.3956354960609</v>
       </c>
       <c r="N22">
-        <v>10.94594206032722</v>
+        <v>18.69066909328076</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.02467796887124</v>
+        <v>19.61523221428834</v>
       </c>
       <c r="C23">
-        <v>15.88621232176962</v>
+        <v>10.91685472866422</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.805728302219706</v>
+        <v>11.54990327579279</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>43.78503424071661</v>
+        <v>41.01903057008941</v>
       </c>
       <c r="H23">
-        <v>12.2379832361946</v>
+        <v>16.74132888841011</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.635582301186743</v>
+        <v>9.895906878512797</v>
       </c>
       <c r="M23">
-        <v>15.74798888717323</v>
+        <v>16.35144918173031</v>
       </c>
       <c r="N23">
-        <v>11.07152651743366</v>
+        <v>18.72019982617724</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.81001481225577</v>
+        <v>18.90184475075406</v>
       </c>
       <c r="C24">
-        <v>14.83677941899544</v>
+        <v>10.46118139601125</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.879572791286333</v>
+        <v>11.58098916313552</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>41.04230681393906</v>
+        <v>40.62456729865181</v>
       </c>
       <c r="H24">
-        <v>11.89478305486471</v>
+        <v>16.77055586285295</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.457852470563119</v>
+        <v>9.897509858043902</v>
       </c>
       <c r="M24">
-        <v>14.5284676296975</v>
+        <v>16.18834939298592</v>
       </c>
       <c r="N24">
-        <v>11.54744811386075</v>
+        <v>18.83551312722608</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.25013127382817</v>
+        <v>18.11612047183936</v>
       </c>
       <c r="C25">
-        <v>13.63596590211845</v>
+        <v>9.939999144893296</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.965012573144472</v>
+        <v>11.61730771496726</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>38.16068229053078</v>
+        <v>40.25342898237319</v>
       </c>
       <c r="H25">
-        <v>11.57774852239805</v>
+        <v>16.81696908964721</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.276215089690548</v>
+        <v>9.904481027324135</v>
       </c>
       <c r="M25">
-        <v>13.36447195659264</v>
+        <v>16.02214919648833</v>
       </c>
       <c r="N25">
-        <v>12.06437448564257</v>
+        <v>18.96737191274167</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.52856320514249</v>
+        <v>21.21256657883885</v>
       </c>
       <c r="C2">
-        <v>9.532289039123967</v>
+        <v>12.69171743976875</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.64646648567682</v>
+        <v>7.032739514253736</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>40.02804150606046</v>
+        <v>36.10951162368987</v>
       </c>
       <c r="H2">
-        <v>16.86384290741739</v>
+        <v>11.38615961952212</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.914138470075724</v>
+        <v>6.151094054345894</v>
       </c>
       <c r="M2">
-        <v>15.90873117907651</v>
+        <v>12.57577703435971</v>
       </c>
       <c r="N2">
-        <v>19.07096936297475</v>
+        <v>12.45075025493562</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.12748390953544</v>
+        <v>19.73958016632772</v>
       </c>
       <c r="C3">
-        <v>9.241980144588794</v>
+        <v>12.01438610974486</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.6677460222269</v>
+        <v>7.081586868799793</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>39.9055691191341</v>
+        <v>34.76737908556107</v>
       </c>
       <c r="H3">
-        <v>16.90347327196797</v>
+        <v>11.28039237401889</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.923512210824526</v>
+        <v>6.071668415551953</v>
       </c>
       <c r="M3">
-        <v>15.83772752787294</v>
+        <v>12.02812367193306</v>
       </c>
       <c r="N3">
-        <v>19.14528044247534</v>
+        <v>12.71738600568784</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.88078476152909</v>
+        <v>18.86024021626994</v>
       </c>
       <c r="C4">
-        <v>9.057197283084198</v>
+        <v>11.58026099802056</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.68156407098756</v>
+        <v>7.113019332916918</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>39.84539046968646</v>
+        <v>33.96862539942187</v>
       </c>
       <c r="H4">
-        <v>16.93166410638931</v>
+        <v>11.22662062207028</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.930664770324887</v>
+        <v>6.025547591283129</v>
       </c>
       <c r="M4">
-        <v>15.79710713986227</v>
+        <v>11.68639298921767</v>
       </c>
       <c r="N4">
-        <v>19.19294441569158</v>
+        <v>12.8838158681436</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.78029921566081</v>
+        <v>18.49231242043551</v>
       </c>
       <c r="C5">
-        <v>8.98031723524752</v>
+        <v>11.39881966946223</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.68738468930925</v>
+        <v>7.126188622978629</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>39.82465272483914</v>
+        <v>33.64976755547676</v>
       </c>
       <c r="H5">
-        <v>16.94411890466057</v>
+        <v>11.20740893186306</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.933931056623345</v>
+        <v>6.007418182624169</v>
       </c>
       <c r="M5">
-        <v>15.78131473468802</v>
+        <v>11.5459416482052</v>
       </c>
       <c r="N5">
-        <v>19.21288181953291</v>
+        <v>12.95236826567828</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.76362110384686</v>
+        <v>18.43064369391729</v>
       </c>
       <c r="C6">
-        <v>8.967457920152576</v>
+        <v>11.36841980773708</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.68836266694763</v>
+        <v>7.128397089754536</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>39.82143801671054</v>
+        <v>33.59723058303013</v>
       </c>
       <c r="H6">
-        <v>16.94624530911301</v>
+        <v>11.20437873461827</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.9344946607984</v>
+        <v>6.004447956554746</v>
       </c>
       <c r="M6">
-        <v>15.77873870650891</v>
+        <v>11.52255356159224</v>
       </c>
       <c r="N6">
-        <v>19.21622350460605</v>
+        <v>12.96379683728894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.87942918163707</v>
+        <v>18.85531684265447</v>
       </c>
       <c r="C7">
-        <v>9.056166759683098</v>
+        <v>11.57783227715667</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.68164180135354</v>
+        <v>7.113195481789386</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>39.84509545861592</v>
+        <v>33.96429791847847</v>
       </c>
       <c r="H7">
-        <v>16.93182816605605</v>
+        <v>11.22635073667901</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.930707396851272</v>
+        <v>6.025300399473134</v>
       </c>
       <c r="M7">
-        <v>15.79689106219876</v>
+        <v>11.68450338545921</v>
       </c>
       <c r="N7">
-        <v>19.1932112151687</v>
+        <v>12.88473736876376</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.39045325709681</v>
+        <v>20.71283966432916</v>
       </c>
       <c r="C8">
-        <v>9.433582211850345</v>
+        <v>12.46198573416313</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.65364780894364</v>
+        <v>7.049282019310092</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>39.98270257952639</v>
+        <v>35.64165011759575</v>
       </c>
       <c r="H8">
-        <v>16.87670491673887</v>
+        <v>11.34730895983647</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.917080752715446</v>
+        <v>6.123158732087483</v>
       </c>
       <c r="M8">
-        <v>15.88363911961085</v>
+        <v>12.38818238134142</v>
       </c>
       <c r="N8">
-        <v>19.09617020754662</v>
+        <v>12.54215297546151</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.38254283209877</v>
+        <v>24.13580533697974</v>
       </c>
       <c r="C9">
-        <v>10.11939669580422</v>
+        <v>14.0497680411625</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.60469956160679</v>
+        <v>6.935474537828315</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>40.37107644699181</v>
+        <v>39.12082114952425</v>
       </c>
       <c r="H9">
-        <v>16.79935457307404</v>
+        <v>11.67777972269216</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.901430908597995</v>
+        <v>6.336059987182026</v>
       </c>
       <c r="M9">
-        <v>16.07678127359488</v>
+        <v>13.71806719330592</v>
       </c>
       <c r="N9">
-        <v>18.92194917469503</v>
+        <v>11.88952049061344</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.09696656333255</v>
+        <v>26.4242961833178</v>
       </c>
       <c r="C10">
-        <v>10.58726036944736</v>
+        <v>15.12696724980369</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.57233328944124</v>
+        <v>6.859065201849825</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>40.72741894644192</v>
+        <v>41.78079436156604</v>
       </c>
       <c r="H10">
-        <v>16.76144695345738</v>
+        <v>11.98357247126782</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.896663118208215</v>
+        <v>6.505296016132797</v>
       </c>
       <c r="M10">
-        <v>16.23188159358402</v>
+        <v>14.8667320478888</v>
       </c>
       <c r="N10">
-        <v>18.80362990212461</v>
+        <v>11.41812823258461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.41721940738847</v>
+        <v>27.41808509729881</v>
       </c>
       <c r="C11">
-        <v>10.79177705102379</v>
+        <v>15.59791102722065</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.55838353077946</v>
+        <v>6.825922850230175</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>40.90456284807368</v>
+        <v>43.01198859722672</v>
       </c>
       <c r="H11">
-        <v>16.74834433261519</v>
+        <v>12.13763220658753</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.895950038455316</v>
+        <v>6.585082387530822</v>
       </c>
       <c r="M11">
-        <v>16.30511103701307</v>
+        <v>15.41396649358543</v>
       </c>
       <c r="N11">
-        <v>18.75187991607354</v>
+        <v>11.2045519710539</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.53768567675676</v>
+        <v>27.78778098331564</v>
       </c>
       <c r="C12">
-        <v>10.86798999304984</v>
+        <v>15.77354644076779</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.55321191938282</v>
+        <v>6.813611070384399</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>40.97376520162718</v>
+        <v>43.48121994512839</v>
       </c>
       <c r="H12">
-        <v>16.7439806679699</v>
+        <v>12.19822356057412</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.895888751251674</v>
+        <v>6.615700208448532</v>
       </c>
       <c r="M12">
-        <v>16.33320796472092</v>
+        <v>15.61754049677629</v>
       </c>
       <c r="N12">
-        <v>18.73257987249461</v>
+        <v>11.12371872804151</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.5117788709627</v>
+        <v>27.70845244672248</v>
       </c>
       <c r="C13">
-        <v>10.85163155906267</v>
+        <v>15.73583947906591</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.55432079448367</v>
+        <v>6.816251915544479</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>40.95876757749433</v>
+        <v>43.38002868761318</v>
       </c>
       <c r="H13">
-        <v>16.74489382826436</v>
+        <v>12.18507231668472</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.895892677152402</v>
+        <v>6.609088076871012</v>
       </c>
       <c r="M13">
-        <v>16.32714077900868</v>
+        <v>15.57385797940211</v>
       </c>
       <c r="N13">
-        <v>18.73672331975983</v>
+        <v>11.14112705052667</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.42714708629424</v>
+        <v>27.44863208045706</v>
       </c>
       <c r="C14">
-        <v>10.79807204565984</v>
+        <v>15.61241448437779</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.55795583976796</v>
+        <v>6.824905133714648</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>40.91021389689547</v>
+        <v>43.05053225465329</v>
       </c>
       <c r="H14">
-        <v>16.74797333315189</v>
+        <v>12.14257136516698</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.895940816567952</v>
+        <v>6.587593211598808</v>
       </c>
       <c r="M14">
-        <v>16.30741534723032</v>
+        <v>15.43078725361699</v>
       </c>
       <c r="N14">
-        <v>18.75028615616893</v>
+        <v>11.19790139097999</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.37519909276405</v>
+        <v>27.28862630328389</v>
       </c>
       <c r="C15">
-        <v>10.76510368579858</v>
+        <v>15.53646293143047</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.5601968349065</v>
+        <v>6.830236740339002</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>40.88074837918113</v>
+        <v>42.84909772273887</v>
       </c>
       <c r="H15">
-        <v>16.7499375658724</v>
+        <v>12.11683466963708</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.895997468363481</v>
+        <v>6.574479741111365</v>
       </c>
       <c r="M15">
-        <v>16.29538014101315</v>
+        <v>15.34267974084999</v>
       </c>
       <c r="N15">
-        <v>18.75863235498448</v>
+        <v>11.23268044420677</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.07593100858859</v>
+        <v>26.35841255906175</v>
       </c>
       <c r="C16">
-        <v>10.57372409151678</v>
+        <v>15.09580933939452</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.57326047463934</v>
+        <v>6.861264152897451</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>40.71614144960797</v>
+        <v>41.70075368012742</v>
       </c>
       <c r="H16">
-        <v>16.76238679687388</v>
+        <v>11.97381389757915</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.896738964426707</v>
+        <v>6.500138250155057</v>
       </c>
       <c r="M16">
-        <v>16.22714815745159</v>
+        <v>14.83045251917399</v>
       </c>
       <c r="N16">
-        <v>18.80705347563229</v>
+        <v>11.43209659110349</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.89103369688265</v>
+        <v>25.77576539188476</v>
       </c>
       <c r="C17">
-        <v>10.45416092488574</v>
+        <v>14.82062138652642</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.58147249168232</v>
+        <v>6.880716459251366</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>40.6189853086923</v>
+        <v>41.0016498075209</v>
       </c>
       <c r="H17">
-        <v>16.77108660794909</v>
+        <v>11.88997746113431</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.897566310882787</v>
+        <v>6.455250096150839</v>
       </c>
       <c r="M17">
-        <v>16.1859622473787</v>
+        <v>14.50960731471283</v>
       </c>
       <c r="N17">
-        <v>18.83728827028715</v>
+        <v>11.55459796356727</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.78424620276096</v>
+        <v>25.43618327853728</v>
       </c>
       <c r="C18">
-        <v>10.38461045822634</v>
+        <v>14.66054113556369</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.58626868688873</v>
+        <v>6.892056650454473</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>40.56452227794237</v>
+        <v>40.60153303894813</v>
       </c>
       <c r="H18">
-        <v>16.77648021966106</v>
+        <v>11.84315832111334</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.898179247421055</v>
+        <v>6.429694980594911</v>
       </c>
       <c r="M18">
-        <v>16.16252596110195</v>
+        <v>14.32260565077559</v>
       </c>
       <c r="N18">
-        <v>18.85487384398437</v>
+        <v>11.62514395962937</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.74801825803607</v>
+        <v>25.32043602105662</v>
       </c>
       <c r="C19">
-        <v>10.36092895014085</v>
+        <v>14.60603061349688</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.58790512270922</v>
+        <v>6.895922140524466</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>40.54632685241696</v>
+        <v>40.46640445956533</v>
       </c>
       <c r="H19">
-        <v>16.7783732587719</v>
+        <v>11.82754375585019</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.898410336044444</v>
+        <v>6.421087661839355</v>
       </c>
       <c r="M19">
-        <v>16.15463478489242</v>
+        <v>14.25886476856482</v>
       </c>
       <c r="N19">
-        <v>18.86086161506883</v>
+        <v>11.64904679630907</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.91076274377523</v>
+        <v>25.83824950836546</v>
       </c>
       <c r="C20">
-        <v>10.46696973069844</v>
+        <v>14.85010158652568</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.58059077071614</v>
+        <v>6.878629983610046</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>40.62918120773604</v>
+        <v>41.07586524809471</v>
       </c>
       <c r="H20">
-        <v>16.77012014635791</v>
+        <v>11.89875622187072</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.897464056499764</v>
+        <v>6.460001251902712</v>
       </c>
       <c r="M20">
-        <v>16.19032052607326</v>
+        <v>14.54401575672503</v>
       </c>
       <c r="N20">
-        <v>18.8340495223271</v>
+        <v>11.54154909486338</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.45202833123786</v>
+        <v>27.52512617157531</v>
       </c>
       <c r="C21">
-        <v>10.81383751289847</v>
+        <v>15.64874027564269</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.55688513344285</v>
+        <v>6.822356946576988</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>40.92441805766788</v>
+        <v>43.14723170018053</v>
       </c>
       <c r="H21">
-        <v>16.74705255982033</v>
+        <v>12.15499297837683</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.895921016871702</v>
+        <v>6.593895774657462</v>
       </c>
       <c r="M21">
-        <v>16.31319938309153</v>
+        <v>15.47290889104581</v>
       </c>
       <c r="N21">
-        <v>18.74629438741951</v>
+        <v>11.18122489398633</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.80102406071857</v>
+        <v>28.58903894169999</v>
       </c>
       <c r="C22">
-        <v>11.03333408199227</v>
+        <v>16.15498575547941</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.54203811380797</v>
+        <v>6.786973190347388</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>41.12971735703786</v>
+        <v>44.51854475176949</v>
       </c>
       <c r="H22">
-        <v>16.73546319182126</v>
+        <v>12.33563533946716</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.896128918788204</v>
+        <v>6.683763267396101</v>
       </c>
       <c r="M22">
-        <v>16.3956354960609</v>
+        <v>16.05875959991756</v>
       </c>
       <c r="N22">
-        <v>18.69066909328076</v>
+        <v>10.94594206032732</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.61523221428834</v>
+        <v>28.02467796887113</v>
       </c>
       <c r="C23">
-        <v>10.91685472866422</v>
+        <v>15.88621232176984</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.54990327579279</v>
+        <v>6.805728302219774</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>41.01903057008941</v>
+        <v>43.78503424071651</v>
       </c>
       <c r="H23">
-        <v>16.74132888841011</v>
+        <v>12.23798323619462</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.895906878512797</v>
+        <v>6.635582301186714</v>
       </c>
       <c r="M23">
-        <v>16.35144918173031</v>
+        <v>15.74798888717316</v>
       </c>
       <c r="N23">
-        <v>18.72019982617724</v>
+        <v>11.07152651743379</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.90184475075406</v>
+        <v>25.81001481225579</v>
       </c>
       <c r="C24">
-        <v>10.46118139601125</v>
+        <v>14.83677941899543</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.58098916313552</v>
+        <v>6.879572791286328</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>40.62456729865181</v>
+        <v>41.04230681393913</v>
       </c>
       <c r="H24">
-        <v>16.77055586285295</v>
+        <v>11.89478305486474</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.897509858043902</v>
+        <v>6.457852470563087</v>
       </c>
       <c r="M24">
-        <v>16.18834939298592</v>
+        <v>14.52846762969751</v>
       </c>
       <c r="N24">
-        <v>18.83551312722608</v>
+        <v>11.54744811386074</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.11612047183936</v>
+        <v>23.25013127382806</v>
       </c>
       <c r="C25">
-        <v>9.939999144893296</v>
+        <v>13.63596590211871</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.61730771496726</v>
+        <v>6.965012573144537</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>40.25342898237319</v>
+        <v>38.16068229053081</v>
       </c>
       <c r="H25">
-        <v>16.81696908964721</v>
+        <v>11.57774852239815</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.904481027324135</v>
+        <v>6.276215089690526</v>
       </c>
       <c r="M25">
-        <v>16.02214919648833</v>
+        <v>13.36447195659266</v>
       </c>
       <c r="N25">
-        <v>18.96737191274167</v>
+        <v>12.06437448564257</v>
       </c>
       <c r="O25">
         <v>0</v>
